--- a/数据整理/stocks/A股/上证主板/600522-中天科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/600522-中天科技.xlsx
@@ -451,239 +451,319 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>519772</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银新生活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>160.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.66</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.0276</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008507</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银施罗德内核驱动混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>106.21</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.9159</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>519732</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>交银定期支付双息平衡混合</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>80.94</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>69.08</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>4.59</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.7151</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>008507</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>交银施罗德内核驱动混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>89.42</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>5.57</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>515880</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰中证全指通信设备ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>27.75</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.72</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4430</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000986</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>太平灵活配置混合型发起式</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>21.13</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.18</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9741</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008326</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>96.24</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1967</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
         <v>6</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>008326</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>西藏东财中证通信技术主题指数A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008327</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>96.24</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>3.63</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1227</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>008327</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>西藏东财中证通信技术主题指数C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>96.24</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>3.63</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>515880</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>国泰中证全指通信设备ETF</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>99.72</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>5.20</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>000986</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>太平灵活配置混合型发起式</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>87.18</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>4.61</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>519772</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>交银新生活力灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>87.66</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>5.61</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>6</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -693,7 +773,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -714,15 +794,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -734,25 +824,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519732</t>
+          <t>519772</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>交银定期支付双息平衡混合</t>
+          <t>交银新生活力灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>66.65</t>
+          <t>148.77</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.57</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>89.85</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.4469</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>6</v>
       </c>
     </row>
@@ -762,25 +862,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000577</t>
+          <t>008507</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>安信价值精选股票</t>
+          <t>交银施罗德内核驱动混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>90.21</t>
+          <t>131.67</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.78</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>86.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.7159</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>7</v>
       </c>
     </row>
@@ -790,26 +900,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010307</t>
+          <t>519732</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>西藏东财信息产业精选混合A</t>
+          <t>交银定期支付双息平衡混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>90.52</t>
+          <t>86.70</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.52</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>8</v>
+          <t>66.65</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.9622</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -818,25 +938,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010308</t>
+          <t>515790</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>西藏东财信息产业精选混合C</t>
+          <t>华泰柏瑞中证光伏产业ETF</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>90.52</t>
+          <t>98.31</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.52</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+          <t>99.32</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.6571</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>8</v>
       </c>
     </row>
@@ -846,26 +976,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>000986</t>
+          <t>515880</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>太平灵活配置混合型发起式</t>
+          <t>国泰中证全指通信设备ETF</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>92.16</t>
+          <t>31.45</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>5.02</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>6</v>
+          <t>99.58</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.8618</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -874,26 +1014,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>011102</t>
+          <t>000577</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>天弘中证光伏产业指数A</t>
+          <t>安信价值精选股票</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>94.23</t>
+          <t>35.15</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.53</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>8</v>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.6802</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -902,25 +1052,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>011103</t>
+          <t>516880</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>天弘中证光伏产业指数C</t>
+          <t>银华中证光伏产业ETF</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>94.23</t>
+          <t>27.10</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.53</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+          <t>98.48</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0000</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>8</v>
       </c>
     </row>
@@ -930,26 +1090,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>515790</t>
+          <t>000986</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华泰柏瑞中证光伏产业ETF</t>
+          <t>太平灵活配置混合型发起式</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>99.32</t>
+          <t>19.14</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3.72</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>8</v>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9608</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>515880</t>
+          <t>550015</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>国泰中证全指通信设备ETF</t>
+          <t>信诚至远灵活配置混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>99.58</t>
+          <t>20.19</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>5.92</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>5</v>
+          <t>80.50</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5330</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -986,25 +1166,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>516880</t>
+          <t>011102</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>银华中证光伏产业ETF</t>
+          <t>天弘中证光伏产业指数A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>98.48</t>
+          <t>11.40</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4024</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>519772</t>
+          <t>011103</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>交银新生活力灵活配置混合</t>
+          <t>天弘中证光伏产业指数C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>89.85</t>
+          <t>8.52</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>6.35</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>6</v>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3008</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>550015</t>
+          <t>008980</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>信诚至远灵活配置混合A</t>
+          <t>中邮科技创新精选混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>80.50</t>
+          <t>6.26</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2.64</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>9</v>
+          <t>74.76</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2748</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>550016</t>
+          <t>008326</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>信诚至远灵活配置混合C</t>
+          <t>西藏东财中证通信技术主题指数A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>80.50</t>
+          <t>4.09</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2.64</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>9</v>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1689</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="15">
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>008980</t>
+          <t>008327</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>中邮科技创新精选混合A</t>
+          <t>西藏东财中证通信技术主题指数C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>74.76</t>
+          <t>3.38</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>4.39</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>2</v>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1396</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="16">
@@ -1136,15 +1366,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>74.76</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>4.39</t>
         </is>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1203</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>008326</t>
+          <t>550016</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>西藏东财中证通信技术主题指数A</t>
+          <t>信诚至远灵活配置混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>94.95</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>6</v>
+          <t>80.50</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0858</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="18">
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>008327</t>
+          <t>010307</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>西藏东财中证通信技术主题指数C</t>
+          <t>西藏东财信息产业精选混合A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>94.95</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>6</v>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>008507</t>
+          <t>010308</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>交银施罗德内核驱动混合</t>
+          <t>西藏东财信息产业精选混合C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>86.00</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>5.86</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>7</v>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600522-中天科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/600522-中天科技.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1505,4 +1506,402 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519772</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银新生活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>128.26</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.0419</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008507</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银施罗德内核驱动混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>116.58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.48</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.7383</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519732</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银定期支付双息平衡混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>81.11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>67.79</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.4553</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000577</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>安信价值精选股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>35.33</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.5793</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>515880</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰中证全指通信设备ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>26.88</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.56</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1021</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008342</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>九泰科鑫策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>35.91</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519117</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>浦银安盛基本面400指数</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>162907</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泰信中证锐联基本面400指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008343</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>九泰科鑫策略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>35.91</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600522-中天科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/600522-中天科技.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1904,4 +1905,174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>515880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证全指通信设备ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>26.56</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.59</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0651</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005984</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴业聚华混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.88</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3272</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005985</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴业聚华混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600522-中天科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/600522-中天科技.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2075,4 +2076,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>20.92</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>18</v>
+      </c>
+      <c r="D4" t="n">
+        <v>32.34</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>21.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600522-中天科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/600522-中天科技.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2084,7 +2085,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2095,17 +2096,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2115,14 +2136,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.42</v>
+          <t>009318</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>321.15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>15.7685</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -2131,14 +2174,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>20.92</v>
+          <t>510500</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方中证500ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>545.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>96.37</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.3272</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -2147,14 +2212,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>18</v>
-      </c>
-      <c r="D4" t="n">
-        <v>32.34</v>
+          <t>000828</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰达宏利转型机遇股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>62.77</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.3017</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -2163,13 +2250,6155 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>009636</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气优选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>58.66</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.23</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.4579</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010846</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方卓越优选3个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>34.27</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>73.62</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.8814</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011220</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方匠心优选股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>41.82</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.7732</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010357</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方阿尔法混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>71.38</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.5775</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013220</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧新兴价值一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>53.09</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.5343</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007340</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>25.53</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.13</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.5037</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>460001</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华泰柏瑞盛世中国混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>21.20</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.25</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.4119</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012382</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>泰达宏利新兴景气龙头混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>27.33</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.3692</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000527</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方新优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>60.15</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.96</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.2932</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010126</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>平安价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>25.34</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.2695</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>515880</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国泰中证全指通信设备ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>18.97</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>99.45</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.2406</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007968</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华泰柏瑞研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>26.42</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>84.91</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.1044</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005136</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华安幸福生活混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>42.88</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.0720</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000566</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华泰柏瑞创新升级混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>24.03</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>86.13</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.0165</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004848</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中欧睿泓定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>27.23</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>59.84</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.0157</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>700003</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>平安策略先锋混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>25.68</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>77.01</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.0092</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>398001</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中海优质成长混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>24.84</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.0085</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>398021</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中海能源策略混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>31.30</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.80</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.0016</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001387</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中融新经济灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>25.01</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.9679</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>162201</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>泰达宏利成长混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>18.75</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.9412</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>162006</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>长城久富核心成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>25.95</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>83.36</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.9264</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>519005</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>海富通股票混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>25.49</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.8922</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012314</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>南方行业领先混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>38.08</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.8492</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001053</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>南方创新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>37.11</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.8350</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009986</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>天弘创新领航混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>13.66</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.8264</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009319</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>南方成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>16.01</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>84.96</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.7861</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>970009</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>方正证券金立方一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>22.29</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>84.82</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.7044</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>165516</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>信诚周期轮动混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>27.18</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>82.30</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.7040</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>970010</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>方正证券金立方一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>22.22</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>84.82</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.7022</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008264</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>南方ESG主题股票A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>27.88</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>84.57</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.6217</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>013141</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中信保诚弘远混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>27.52</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>28.25</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.5972</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>013221</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中欧新兴价值一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>20.39</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.5893</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>002851</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>南方品质优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>73.98</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.5456</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>008373</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>12.72</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>86.85</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.5381</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>004391</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>平安转型创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>11.30</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.4746</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>008638</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>广发科技创新混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.4668</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001210</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>天弘互联网灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.4473</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>005123</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>南方优享分红灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.4280</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>005984</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>兴业聚华混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>21.22</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>20.35</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.4180</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>008326</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>10.20</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>95.43</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.3968</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>007251</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>广发睿享稳健增利混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>35.77</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>39.39</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.3827</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>512500</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华夏中证500ETF</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>60.13</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>97.82</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.3788</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011353</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中融景盛一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>38.65</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>23.86</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.3672</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>006100</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>平安优势产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.3120</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>006921</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>南方智诚混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2907</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>162204</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>泰达宏利行业精选混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.2892</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>007893</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>平安估值精选混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.2819</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>000967</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华泰柏瑞创新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>85.24</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.2805</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>005412</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>金信民长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>87.29</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.2548</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010847</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>南方卓越优选3个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>73.62</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.2470</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>005742</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>南方成安优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>11.22</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.2457</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>159922</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>嘉实中证500ETF</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>36.91</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>97.56</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.2325</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010358</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>南方阿尔法混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>10.19</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.2252</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>010136</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>泰达宏利高研发创新6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.2214</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>001403</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>招商国企改革主题混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.2150</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>004814</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>中欧红利优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.2110</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>010824</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>天弘创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>87.70</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.2033</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>162208</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>泰达宏利首选企业股票</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.2028</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>002450</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>平安睿享文娱灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1992</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>010135</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>泰达宏利高研发创新6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1975</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>510510</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>广发中证500ETF</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>31.19</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>98.56</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1965</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>006101</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>平安优势产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1779</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>002376</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>国寿安保核心产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>82.37</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1746</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>005310</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>广发电子信息传媒产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1716</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>007306</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>华泰柏瑞基本面智选混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1476</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>005413</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>金信民长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>87.29</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1420</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>012126</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>泰达宏利新能源股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1391</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>005876</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>易方达鑫转增利混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>12.58</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>26.25</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1359</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>012383</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>泰达宏利新兴景气龙头混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1333</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>159820</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>天弘中证500ETF</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>23.75</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1306</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>004815</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>中欧红利优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1294</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>009486</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>光大保德信瑞和混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1202</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>001701</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>中融产业升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>88.89</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1186</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>010613</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>中融产业趋势一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1156</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>011384</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>南方远见回报股票A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1110</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>007307</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>华泰柏瑞基本面智选混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1105</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>011221</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>南方匠心优选股票C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1068</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>002707</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫科技领先灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1066</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>009651</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>海富通成长甄选混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.1040</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>010127</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>平安价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.1032</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>002451</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>平安睿享文娱灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.1021</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>012667</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>中融景泓一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>24.22</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.1013</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>004390</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>平安转型创新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0974</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>007341</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>南方科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>86.13</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0966</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>012127</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>泰达宏利新能源股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0945</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>009652</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>海富通成长甄选混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0919</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>510580</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>易方达中证500ETF</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>15.03</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0902</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>004703</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>南方兴盛先锋灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>73.63</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0879</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>510590</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>平安中证500ETF</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>12.98</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>97.17</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0805</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>001692</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>南方国策动力股票</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0750</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>005985</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>兴业聚华混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>20.35</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0715</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>008327</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>95.43</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0677</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>010825</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>天弘创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>87.70</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0673</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>004301</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>国寿安保稳信混合A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>25.45</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0606</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>005877</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>易方达鑫转增利混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>26.25</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0599</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>001808</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>银华互联网主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0598</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>010236</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>广发电子信息传媒产业精选股票C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0559</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>005175</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>国寿安保消费新蓝海灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>81.05</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0488</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>006590</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>南方新优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>88.96</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0486</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>008265</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>南方ESG主题股票C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>84.57</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0475</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>002316</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>创金合信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0441</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>000976</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>长城新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>86.43</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>561350</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>国泰中证500ETF</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>97.45</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>001388</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>中融新经济灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0395</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>009059</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>南方沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>007894</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>平安估值精选混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0365</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>009987</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>天弘创新领航混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0357</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>159968</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>博时中证500ETF</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>002179</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>华安事件驱动量化策略混合</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>512510</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500ETF</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>95.77</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>160616</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数(LOF) A</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>001244</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>006377</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>广发趋势动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>91.37</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>011354</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>中融景盛一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>23.86</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>001351</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>501036</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>汇添富中证500指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>510530</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>工银瑞信中证500ETF</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>99.09</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>159982</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>鹏华中证500ETF</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>009487</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>光大保德信瑞和混合C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>510560</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>国寿安保中证500ETF</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>99.20</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>012668</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>中融景泓一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>24.22</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>165511</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>信诚中证500指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>010992</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>西藏东财中证500指数A</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>95.00</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>010028</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>华泰柏瑞创新升级混合C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>86.13</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>010614</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>中融产业趋势一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>005903</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>泰达宏利绩优增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>001252</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>中海进取收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>011385</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>南方远见回报股票C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>006693</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>金信消费升级股票C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>001531</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>招商安益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>006938</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数(LOF) C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>010291</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>华泰柏瑞研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>84.91</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>009060</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>南方沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>006587</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>南方优享分红灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>501037</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>汇添富中证500指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>011149</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>创金合信ESG责任投资股票A</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>87.37</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>006692</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>金信消费升级股票A</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>510440</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>大成中证500沪市ETF</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>97.02</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>006104</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>010993</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>西藏东财中证500指数C</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>95.00</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>159935</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>景顺长城中证500ETF</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>98.82</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>515190</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>中银证券中证500ETF</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>99.22</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>515530</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>泰康中证500ETF</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>95.41</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>660011</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>农银中证500指数</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>008374</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>86.85</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>159999</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>永赢中证500ETF</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>97.43</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>011150</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>创金合信ESG责任投资股票C</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>87.37</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>006611</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>人保中证500指数</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>519117</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>浦银安盛基本面400指数</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>004302</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>国寿安保稳信混合C</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>25.45</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>013119</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>信诚中证500指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>162907</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>泰信中证锐联基本面400指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>515550</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>中融中证500ETF</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>002311</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>创金合信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>004227</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>泰信鑫利混合A</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>28.02</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>510550</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>方正富邦中证500ETF</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>97.99</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>004228</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>泰信鑫利混合C</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>28.02</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>510570</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>兴业中证500ETF</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>95.78</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>010355</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>162</v>
+      </c>
+      <c r="D2" t="n">
+        <v>71.89</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>20.92</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>18</v>
+      </c>
+      <c r="D5" t="n">
+        <v>32.34</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>7</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>21.4</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600522-中天科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/600522-中天科技.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>514</v>
+        <v>166</v>
       </c>
       <c r="D2" t="n">
-        <v>121.11</v>
+        <v>39.36</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>405</v>
+        <v>514</v>
       </c>
       <c r="D3" t="n">
-        <v>115.29</v>
+        <v>121.11</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>270</v>
+        <v>405</v>
       </c>
       <c r="D4" t="n">
-        <v>89.61</v>
+        <v>115.29</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>162</v>
+        <v>270</v>
       </c>
       <c r="D5" t="n">
-        <v>71.89</v>
+        <v>89.61</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>162</v>
       </c>
       <c r="D6" t="n">
-        <v>1.42</v>
+        <v>71.89</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>20.92</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D8" t="n">
-        <v>32.34</v>
+        <v>20.92</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,352 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>18</v>
+      </c>
+      <c r="D9" t="n">
+        <v>32.34</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>7</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>21.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519772</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银新生活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>160.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.66</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.0276</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008507</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银施罗德内核驱动混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>106.21</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.9159</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519732</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银定期支付双息平衡混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>80.94</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>69.08</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.7151</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>515880</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰中证全指通信设备ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>27.75</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.72</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4430</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000986</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>太平灵活配置混合型发起式</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>21.13</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.18</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9741</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008326</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>96.24</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1967</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008327</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>96.24</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1227</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +956,6364 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H167"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000828</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰达宏利转型机遇股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>48.16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.4868</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>163418</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全合兴混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>55.36</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6165</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>590002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中邮核心成长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>35.53</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>73.54</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5491</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>700003</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>平安策略先锋混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>42.49</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.87</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3597</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012382</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰达宏利新兴景气龙头混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.52</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.2919</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>162201</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰达宏利成长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>14.63</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.1777</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010336</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧悦享生活混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>34.93</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.84</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.1282</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>515880</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰中证全指通信设备ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.06</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.47</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.0344</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014023</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泰达宏利景气领航两年持有混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>13.41</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9239</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>163411</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>兴全精选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>34.84</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.34</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.9163</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005984</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>兴业聚华混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>18.60</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>32.61</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.8277</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>015396</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方潜力新蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>15.54</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.8112</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000327</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方潜力新蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>15.32</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7997</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>290006</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>泰信蓝筹精选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>15.07</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7927</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000547</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>建信健康民生混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>17.47</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>84.96</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.7914</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010963</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>信澳周期动力混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>24.33</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.7907</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012800</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>泰达宏利转型机遇股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>9.29</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6726</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>590001</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中邮核心优选混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>11.94</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>83.93</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6460</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005535</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>泰信竞争优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>11.30</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5345</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010588</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏扬先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.5261</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010587</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏扬先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.5182</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002083</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>新华鑫动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>14.37</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.5001</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005668</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>融通新能源汽车主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.4805</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>013396</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华夏新能源车龙头混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.4722</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>550002</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>信诚精萃成长混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>18.69</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>83.73</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.4691</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006392</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中信保诚创新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>17.31</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.4293</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012475</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>平安优质企业混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>17.70</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>80.30</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3876</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>014849</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>建信健康民生混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>84.96</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3751</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001701</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中融产业升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>87.83</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3750</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001388</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中融新经济灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>9.05</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3729</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001210</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>天弘互联网灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.3601</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>519091</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>新华泛资源优势混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>10.41</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>79.97</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.3581</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005037</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>银华新能源新材料量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>11.53</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.3574</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>004390</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>平安转型创新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>10.30</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.3543</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>013395</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华夏新能源车龙头混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.3504</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005985</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>兴业聚华混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>32.61</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.3426</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>000061</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华夏盛世混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>14.79</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>80.71</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.3402</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>002084</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>新华鑫动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>9.75</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.3393</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>070013</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>嘉实研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>12.63</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.3322</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001166</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>建信环保产业股票</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>86.02</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.3193</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>012456</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>鹏扬数字经济先锋混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2993</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>014203</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>鹏扬产业趋势一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2966</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>005352</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>鹏扬景泰成长混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2914</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>590005</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>中邮核心主题混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>89.10</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2904</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010135</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>泰达宏利高研发创新6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>87.03</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2769</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>009885</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>新华景气行业混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>88.50</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2757</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>004391</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>平安转型创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2632</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>005119</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>银华智荟内在价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2566</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>519089</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>新华优选成长混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.2407</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>162202</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>泰达宏利周期混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>89.10</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.2387</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>011404</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>融通鑫新成长混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.2139</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>012127</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>泰达宏利新能源股票C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.2103</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>015303</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>鹏扬丰融价值先锋一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>87.83</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.2036</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>017289</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>泰达宏利首选企业股票C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1969</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>002770</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>安信新回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>81.00</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1945</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>165313</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>建信优势动力混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1930</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>012126</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>泰达宏利新能源股票A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1888</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>005642</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>鹏扬景升灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1776</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>001387</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>中融新经济灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1776</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>004745</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>长盛创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1745</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>014807</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>泰达宏利景气智选18个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1727</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>015553</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>融通价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1713</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>012383</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>泰达宏利新兴景气龙头混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1713</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>015455</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>信澳周期动力混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1674</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>011001</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>中邮兴荣价值一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>67.79</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1616</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>011813</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>融通创新动力混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>86.04</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1600</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>002771</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>安信新回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>81.00</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1491</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>014245</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>鹏扬竞争力先锋一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1453</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>000584</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>新华鑫益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1439</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>014244</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>鹏扬竞争力先锋一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1413</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>012523</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>中融高质量成长混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>82.78</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1399</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>009986</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>天弘创新领航混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1370</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>012023</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>兴业聚乾混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>10.42</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>20.35</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1344</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>006051</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>鹏扬核心价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1311</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>005664</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>鹏扬景欣混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>29.26</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1270</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>014811</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>平安兴奕成长1年持有混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1131</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>010136</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>泰达宏利高研发创新6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>87.03</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1115</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>015229</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>华夏低碳经济一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>86.07</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1023</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>005038</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>银华新能源新材料量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0995</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>001808</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>银华互联网主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0968</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>010033</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>安信成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>81.44</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0932</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>011403</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>融通鑫新成长混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0852</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>005903</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>泰达宏利绩优增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0851</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>001753</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>红土创新新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>66.35</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0792</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>005353</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>鹏扬景泰成长混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0791</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>015576</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>泰达宏利绩优增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0782</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>012259</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>天弘鑫悦成长混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0742</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>013842</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>银华新锐成长混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0740</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>014781</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>建信兴衡优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>80.66</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0691</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>159811</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>博时中证5G产业50ETF</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>98.32</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0690</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>008327</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>95.31</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0675</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>015554</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>融通价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0658</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>002291</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>诺安安鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0653</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>002537</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>平安安盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>82.60</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0629</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>010238</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>安信创新先锋混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0586</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>013916</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>中融成长先锋一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0515</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>008416</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>鹏扬景瑞三年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>26.80</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>008499</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>鹏扬景科混合A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>41.00</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0467</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>010697</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>中融行业先锋6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>012457</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>鹏扬数字经济先锋混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0461</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>009835</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>融通新能源汽车主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0460</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>015230</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>华夏低碳经济一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>86.07</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0421</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>013461</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>鹏扬成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0417</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>001484</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>天弘新价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0387</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>160137</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>南方中证互联网指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0372</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>005643</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>鹏扬景升灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0365</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>006251</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>银华兴盛股票</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>006052</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>鹏扬核心价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>009987</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>天弘创新领航混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>016262</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>银华智荟内在价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>014150</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>新华鑫益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>009886</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>新华景气行业混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>88.50</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>010337</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>中欧悦享生活混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>87.84</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>002281</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>建信裕利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>014782</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>建信兴衡优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>80.66</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>005665</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>鹏扬景欣混合C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>29.26</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>000827</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>广发中证百度百发策略100指数E</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>002498</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>兴业聚鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>20.23</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>015304</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>鹏扬丰融价值先锋一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>87.83</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>013843</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>银华新锐成长混合C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>014812</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>平安兴奕成长1年持有混合C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>000433</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>安信鑫发优选混合A</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>71.75</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>007138</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>鹏扬元合量化大盘优选股票C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>013462</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>鹏扬成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>004573</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>新华鑫泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>81.48</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>008326</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数A</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>95.31</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>010237</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>安信创新先锋混合A</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>006738</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>工银添慧债券A</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>21.45</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>012258</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>天弘鑫悦成长混合A</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>008500</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>鹏扬景科混合C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>41.00</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>012476</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>平安优质企业混合C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>80.30</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>014204</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>鹏扬产业趋势一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>016254</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>信诚精萃成长混合C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>83.73</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>162214</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>泰达宏利领先中小盘混合</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>85.27</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>010034</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>安信成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>81.44</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>014808</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>泰达宏利景气智选18个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>005251</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>银华多元动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>88.30</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>010367</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>中融景瑞一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>21.49</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>013470</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>泰信低碳经济混合C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>89.01</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>000826</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>广发中证百度百发策略100指数A</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>015537</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>红塔红土新能源主题精选股票A</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>78.44</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>450007</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>国富成长动力混合</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>005569</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>中融智选红利股票A</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>016258</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>中信保诚创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>015461</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>天弘互联网灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>013469</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>泰信低碳经济混合A</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>89.01</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>008417</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>鹏扬景瑞三年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>26.80</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>015772</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>银华互联网主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>007137</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>鹏扬元合量化大盘优选股票A</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>012524</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>中融高质量成长混合C</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>82.78</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>012024</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>兴业聚乾混合C</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>20.35</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>012891</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>安信鑫发优选混合C</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>71.75</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>010368</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>中融景瑞一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>21.49</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>008221</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>兴业聚鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>20.23</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>010698</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>中融行业先锋6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>013917</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>中融成长先锋一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>011814</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>融通创新动力混合C</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>86.04</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>006739</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>工银添慧债券C</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>21.45</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>005570</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>中融智选红利股票C</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>015538</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>红塔红土新能源主题精选股票C</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>78.44</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>016246</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>天弘新价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>510570</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>兴业中证500ETF</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>97.48</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>014051</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>平安安盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>82.60</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>010670</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>兴全合兴混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G165" t="n">
+        <v>0</v>
+      </c>
+      <c r="H165" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>960025</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>嘉实研究精选混合H</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G166" t="n">
+        <v>0</v>
+      </c>
+      <c r="H166" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>162208</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>泰达宏利首选企业股票A</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G167" t="n">
+        <v>0</v>
+      </c>
+      <c r="H167" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -20179,7 +26876,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -35611,7 +42308,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -45923,7 +52620,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -52135,7 +58832,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -52305,7 +59002,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -52703,7 +59400,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -53441,326 +60138,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>519772</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>交银新生活力灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>160.92</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>87.66</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.61</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>9.0276</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>008507</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>交银施罗德内核驱动混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>106.21</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>89.42</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.57</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>5.9159</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>519732</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>交银定期支付双息平衡混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>80.94</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>69.08</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.59</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>3.7151</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>515880</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>国泰中证全指通信设备ETF</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>27.75</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>99.72</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.20</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.4430</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>000986</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>太平灵活配置混合型发起式</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>21.13</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>87.18</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.61</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.9741</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>008326</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>西藏东财中证通信技术主题指数A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>5.42</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>96.24</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.63</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1967</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>008327</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>西藏东财中证通信技术主题指数C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>96.24</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.63</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1227</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>